--- a/TCC - Monografia/Documentos/Últimas versões EAP/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Documentos/Últimas versões EAP/Modelo de Análise dos Eventos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Capacidades</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>O Gerente Operacional encaminha as informações para o Administrativo  no final da semana</t>
   </si>
   <si>
     <t xml:space="preserve">A atendente recebe o pedido e armazena as informações 
@@ -124,6 +121,27 @@
   </si>
   <si>
     <t>Gerente Operacional efetua a impressão da OS para a realização do serviço.</t>
+  </si>
+  <si>
+    <t>O Gerente de Manutenção encaminha as informações para o Administrativo  no final da semana</t>
+  </si>
+  <si>
+    <t>Concluir OS</t>
+  </si>
+  <si>
+    <t>Motoboy entrega ao gerente operacional as O.S. realizadas para validação</t>
+  </si>
+  <si>
+    <t>Gerente Operacional registra os pontos do motoboy para posterior pagamento</t>
+  </si>
+  <si>
+    <t>Gerente Operacional registra os pontos para cobrança do cliente</t>
+  </si>
+  <si>
+    <t>X(FB7)</t>
+  </si>
+  <si>
+    <t>X(FB8)</t>
   </si>
 </sst>
 </file>
@@ -305,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +416,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -854,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -872,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -894,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -912,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -930,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -972,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:J8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1074,7 +1110,7 @@
     </row>
     <row r="5" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>15</v>
@@ -1083,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
@@ -1096,7 +1132,7 @@
     </row>
     <row r="6" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>15</v>
@@ -1105,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -1118,7 +1154,7 @@
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>15</v>
@@ -1127,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
@@ -1140,7 +1176,7 @@
     </row>
     <row r="8" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>15</v>
@@ -1149,21 +1185,81 @@
         <v>6</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
+    <row r="9" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="13">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="13">
+        <v>9</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/TCC - Monografia/Documentos/Últimas versões EAP/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Documentos/Últimas versões EAP/Modelo de Análise dos Eventos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\Desktop\pos-fit-es10\trunk\TCC - Monografia\Documentos\Últimas versões EAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170" activeTab="2"/>
   </bookViews>
@@ -66,9 +71,6 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Motoboy passa as informações sobre a manutenção realizada em um determinado dia</t>
-  </si>
-  <si>
     <t>Consultar Manutenção</t>
   </si>
   <si>
@@ -123,9 +125,6 @@
     <t>Gerente Operacional efetua a impressão da OS para a realização do serviço.</t>
   </si>
   <si>
-    <t>O Gerente de Manutenção encaminha as informações para o Administrativo  no final da semana</t>
-  </si>
-  <si>
     <t>Concluir OS</t>
   </si>
   <si>
@@ -142,6 +141,12 @@
   </si>
   <si>
     <t>X(FB8)</t>
+  </si>
+  <si>
+    <t>Motoboy passa as informações sobre a manutenção realizada no veículo</t>
+  </si>
+  <si>
+    <t>O Gerente de Manutenção [disponibiliza as manutenções realizadas para o Administrativo] encaminha as informações para o Administrativo  no final da semana</t>
   </si>
 </sst>
 </file>
@@ -561,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,7 +601,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -872,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -890,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -908,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -930,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -948,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -966,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1010,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,11 +1080,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1088,7 +1093,7 @@
     </row>
     <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>15</v>
@@ -1097,20 +1102,20 @@
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>15</v>
@@ -1119,11 +1124,11 @@
         <v>3</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1132,7 +1137,7 @@
     </row>
     <row r="6" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>15</v>
@@ -1141,11 +1146,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1154,7 +1159,7 @@
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>15</v>
@@ -1163,11 +1168,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1176,7 +1181,7 @@
     </row>
     <row r="8" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>15</v>
@@ -1185,12 +1190,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1198,7 +1203,7 @@
     </row>
     <row r="9" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>15</v>
@@ -1207,11 +1212,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1225,12 +1230,12 @@
         <v>8</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1243,12 +1248,12 @@
         <v>9</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>

--- a/TCC - Monografia/Documentos/Últimas versões EAP/Modelo de Análise dos Eventos.xlsx
+++ b/TCC - Monografia/Documentos/Últimas versões EAP/Modelo de Análise dos Eventos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele\Desktop\pos-fit-es10\trunk\TCC - Monografia\Documentos\Últimas versões EAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4170" activeTab="2"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>Capacidades</t>
   </si>
@@ -107,18 +102,12 @@
     <t xml:space="preserve">Motoboy envia informações sobre seus dados pessoais. </t>
   </si>
   <si>
-    <t>Proprietário envia informações sobre o novo veículo para o Coordenador Administrativo.</t>
-  </si>
-  <si>
     <t>Registrar OS</t>
   </si>
   <si>
     <t>Imprimir OS</t>
   </si>
   <si>
-    <t>X(FB5)</t>
-  </si>
-  <si>
     <t>Cliente solicita OS para o Coordenador de Vendas</t>
   </si>
   <si>
@@ -137,16 +126,79 @@
     <t>Gerente Operacional registra os pontos para cobrança do cliente</t>
   </si>
   <si>
-    <t>X(FB7)</t>
-  </si>
-  <si>
-    <t>X(FB8)</t>
-  </si>
-  <si>
     <t>Motoboy passa as informações sobre a manutenção realizada no veículo</t>
   </si>
   <si>
     <t>O Gerente de Manutenção [disponibiliza as manutenções realizadas para o Administrativo] encaminha as informações para o Administrativo  no final da semana</t>
+  </si>
+  <si>
+    <t>Alterar Motoboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fornecedor envia informações sobre o novo veículo.</t>
+  </si>
+  <si>
+    <t>Inativar Motoboy</t>
+  </si>
+  <si>
+    <t>Coordenador Administrativo inativa motoboy.</t>
+  </si>
+  <si>
+    <t>Coordenador administrativo inativa veículo.</t>
+  </si>
+  <si>
+    <t>Inativar Veículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente envia informações sobre seus dados pessoais. </t>
+  </si>
+  <si>
+    <t>Registrar Cliente</t>
+  </si>
+  <si>
+    <t>Alterar Cliente</t>
+  </si>
+  <si>
+    <t>Motoboy envia comprovante de manutenção.</t>
+  </si>
+  <si>
+    <t>Registrar Tipo de Serviço de Manutenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Registrar Fornecedor de Serviços de Manutenção</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fornecedor de Serviços de Manutenção envia informações sobre seus dados.</t>
+  </si>
+  <si>
+    <t>Alterar Fornecedor de Serviços de Manutenção</t>
+  </si>
+  <si>
+    <t>Coordenador administrativo envia informações do contrato.</t>
+  </si>
+  <si>
+    <t>Coordenador administrativo informa filtros.</t>
+  </si>
+  <si>
+    <t>Gerar Relatório de Contratos</t>
+  </si>
+  <si>
+    <t>Gerar Relatório detalhado de Contrato</t>
+  </si>
+  <si>
+    <t>Gerar Relatório de OS</t>
+  </si>
+  <si>
+    <t>Gerar Relatório de Serviços de Manutenção</t>
+  </si>
+  <si>
+    <t>X(FB17)</t>
+  </si>
+  <si>
+    <t>X(FB19)</t>
+  </si>
+  <si>
+    <t>X(FB20)</t>
   </si>
 </sst>
 </file>
@@ -566,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,7 +653,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,15 +1065,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="4" width="49.5703125" customWidth="1"/>
@@ -1080,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
@@ -1102,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1137,7 +1189,7 @@
     </row>
     <row r="6" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>15</v>
@@ -1146,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -1159,7 +1211,7 @@
     </row>
     <row r="7" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>15</v>
@@ -1168,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
@@ -1181,7 +1233,7 @@
     </row>
     <row r="8" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>15</v>
@@ -1190,81 +1242,345 @@
         <v>6</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13">
         <v>7</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="13">
         <v>8</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="13">
         <v>9</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13">
+        <v>14</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="13">
+        <v>15</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>16</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13">
+        <v>17</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13">
+        <v>18</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="13">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="13">
+        <v>20</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="13">
+        <v>21</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
